--- a/data/IEEE9/Market Data/ieee9_market_data_2035.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF4326-646A-4603-A8E8-5935858DA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B813A-1A15-4E1B-B79C-024BA5A5DCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3435" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1325,23 +1325,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1355,7 +1356,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,16 +1372,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.0776827375880809</v>
+        <v>1.1609689553699984</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1403,9 +1404,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,310 +1483,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>47.105512459975017</v>
+        <v>50.745953039222634</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>43.953290452529878</v>
+        <v>47.350118844765383</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>42.086205109658522</v>
+        <v>45.33874012958686</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>39.467436057319496</v>
+        <v>42.517585568037774</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>40.644804448134472</v>
+        <v>43.785944151779496</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>43.910183143026359</v>
+        <v>47.303680086550592</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>53.124370549404446</v>
+        <v>57.229964654964078</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>55.597652432169099</v>
+        <v>59.894388407538223</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>58.464288514153388</v>
+        <v>62.982565828822416</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>58.019744384898303</v>
+        <v>62.503666134732292</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>56.901648544650676</v>
+        <v>61.299160843535923</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>56.624145239721734</v>
+        <v>61.000211337528143</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>54.431060868729986</v>
+        <v>58.637639513350187</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>53.663211918198492</v>
+        <v>57.810449132649076</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>52.60977704220614</v>
+        <v>56.6756019787749</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>52.714851109120971</v>
+        <v>56.788796451923474</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>53.528501575999975</v>
+        <v>57.665328013227828</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>56.174212696778717</v>
+        <v>60.515506798661171</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>58.863031127060985</v>
+        <v>63.412124342309319</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>59.315657876847979</v>
+        <v>63.899731303564721</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>57.947000800111105</v>
+        <v>62.425300730244814</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>54.307127353907362</v>
+        <v>58.504128083482648</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>49.015705112349892</v>
+        <v>52.803770512615955</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>46.00627606763517</v>
+        <v>49.561764704745229</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>43.991009348345465</v>
+        <v>47.390752758203334</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>41.523115879268758</v>
+        <v>44.732133850406044</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>38.83429744898649</v>
+        <v>41.835516306757889</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>37.099228241469682</v>
+        <v>39.966356288612197</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>39.162990683950859</v>
+        <v>42.189611838145744</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>41.253695194871739</v>
+        <v>44.441891611563541</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>47.633577001393178</v>
+        <v>51.314827827353938</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>49.756611994441698</v>
+        <v>53.601936669432831</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>52.246059118270168</v>
+        <v>56.283774956337531</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>52.596306007986286</v>
+        <v>56.661089866832775</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>51.082161761675039</v>
+        <v>55.029928484537933</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>50.031421092526649</v>
+        <v>53.897983753052173</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>48.501111605151571</v>
+        <v>52.249407836426776</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>47.989212304797242</v>
+        <v>51.697947582626036</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>45.850012070684905</v>
+        <v>49.393424206216586</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>45.488988353592894</v>
+        <v>49.004499606167634</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>46.426572335294523</v>
+        <v>50.014542597339528</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>51.189930035433839</v>
+        <v>55.146025380074924</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>53.593162540255264</v>
+        <v>57.734986150550029</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>54.43375507557397</v>
+        <v>58.640541935738625</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>54.735506242098623</v>
+        <v>58.965613243242217</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>52.305331668837503</v>
+        <v>56.34762824888287</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>47.36954473068409</v>
+        <v>51.030390433288282</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>44.950146984798856</v>
+        <v>48.424015128482637</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>50.22001557160457</v>
+        <v>54.101153320241927</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>46.383465025790997</v>
+        <v>49.96810383912473</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>45.338112770330561</v>
+        <v>48.841963952415838</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>41.835643873169296</v>
+        <v>45.068814847463337</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>42.126618212318085</v>
+        <v>45.382276465413241</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>46.566671091180972</v>
+        <v>50.165468561537637</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>58.615164097415722</v>
+        <v>63.145101482574219</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>61.438692869896485</v>
+        <v>66.186840145643615</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>64.682517910036623</v>
+        <v>69.681356701307308</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>63.44318276181032</v>
+        <v>68.346242402631802</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>62.721135327626307</v>
+        <v>67.568393202533912</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>63.216869386916819</v>
+        <v>68.102438922004112</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>60.361010132308408</v>
+        <v>65.025871190273605</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>59.337211531599735</v>
+        <v>63.922950682672116</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>59.369542013727376</v>
+        <v>63.95777975133322</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>59.940713864649055</v>
+        <v>64.573093297679307</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>60.630430816705427</v>
+        <v>65.316113429116115</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>61.158495358123588</v>
+        <v>65.884988217247411</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>64.132899713866692</v>
+        <v>69.08926253406861</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>64.197560678121974</v>
+        <v>69.158920671390803</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>61.158495358123588</v>
+        <v>65.884988217247411</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>56.308923038977227</v>
+        <v>60.660627918082419</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>50.661865494015679</v>
+        <v>54.577150591943628</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>47.062405150471491</v>
+        <v>50.699514281007836</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1812,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1852,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,310 +1931,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>51.85315395352449</v>
+        <v>55.860505024692195</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>47.41848948834955</v>
+        <v>51.083117773344668</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>56.287818418699452</v>
+        <v>60.63789227603975</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2260,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2299,9 +2300,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,310 +2379,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>40.165235629907777</v>
+        <v>43.269312966639845</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>36.651989905370627</v>
+        <v>39.484554172133642</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>35.100126763243793</v>
+        <v>37.812758876400849</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>34.464293948066825</v>
+        <v>37.127787192732548</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>34.625946358705043</v>
+        <v>37.301932536038052</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>39.1953211660785</v>
+        <v>42.224440906806841</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>40.854952581964142</v>
+        <v>44.012333098076638</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>40.854952581964142</v>
+        <v>44.012333098076638</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>42.934880265509143</v>
+        <v>46.253003181940741</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>43.042648539267944</v>
+        <v>46.369100077477732</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>42.934880265509143</v>
+        <v>46.253003181940741</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>43.118086330899111</v>
+        <v>46.450367904353634</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>42.503807170473905</v>
+        <v>45.788615599792735</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>42.234386486076886</v>
+        <v>45.498373360950239</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>41.350686641254661</v>
+        <v>44.546378817546838</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>40.079021010900725</v>
+        <v>43.176435450210242</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>37.697342160831063</v>
+        <v>40.61069405884254</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>40.273003903666577</v>
+        <v>43.385409862176836</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>41.814090218417533</v>
+        <v>45.045595468355934</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>42.999541229764425</v>
+        <v>46.322661319262934</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>42.072734075438674</v>
+        <v>45.324228017644735</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>42.934880265509143</v>
+        <v>46.253003181940741</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>42.848665646502091</v>
+        <v>46.160125665511138</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>41.102819611609405</v>
+        <v>44.279355957811738</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>42.762451027495047</v>
+        <v>46.067248149081536</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>37.718895815582833</v>
+        <v>40.633913437949943</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>41.167480575864694</v>
+        <v>44.349014095133946</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>39.76649301700018</v>
+        <v>42.839754453152942</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>40.531647760687719</v>
+        <v>43.664042411465644</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>41.167480575864694</v>
+        <v>44.349014095133946</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>40.100574665652488</v>
+        <v>43.199654829317645</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>43.301292396289092</v>
+        <v>46.64773262676654</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>46.167928478273389</v>
+        <v>49.735910048050741</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>46.372688198415119</v>
+        <v>49.956494149571036</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>46.82531494820212</v>
+        <v>50.444101110826438</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>47.709014793024345</v>
+        <v>51.396095654229832</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>48.463392709335999</v>
+        <v>52.208773922988826</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>49.72428151231405</v>
+        <v>53.567107600771728</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>47.838336721534908</v>
+        <v>51.535411928874233</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>46.351134543663356</v>
+        <v>49.933274770463633</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>46.189482133025145</v>
+        <v>49.759129427158136</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>47.127066114726773</v>
+        <v>50.769172418330029</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>47.385709971747914</v>
+        <v>51.047804967618831</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>48.387954917704832</v>
+        <v>52.127506096112931</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>48.980680423378281</v>
+        <v>52.766039021566435</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>49.735058339689928</v>
+        <v>53.578717290325429</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>48.463392709335999</v>
+        <v>52.208773922988826</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>45.80151634749344</v>
+        <v>49.341180603224934</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>35.983826608066018</v>
+        <v>38.764753419804251</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>33.214181972464651</v>
+        <v>35.781063204503354</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>31.134254288919657</v>
+        <v>33.540393120639258</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>30.63852022962914</v>
+        <v>33.006347401169059</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>31.694649312465458</v>
+        <v>34.144096977431651</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>37.061509345654102</v>
+        <v>39.925722375174246</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>48.754367048484781</v>
+        <v>52.52223554093873</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>46.254143097280433</v>
+        <v>49.828787564480336</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>48.366401262953069</v>
+        <v>52.104286717005536</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>47.741345275151978</v>
+        <v>51.430924722890929</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>44.249653205366606</v>
+        <v>47.669385307492142</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>42.999541229764425</v>
+        <v>46.322661319262934</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>47.612023346641415</v>
+        <v>51.291608448246528</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>48.689706084229492</v>
+        <v>52.45257740361653</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>48.366401262953069</v>
+        <v>52.104286717005536</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>47.795229412031389</v>
+        <v>51.488973170659435</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>47.795229412031389</v>
+        <v>51.488973170659435</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>48.366401262953069</v>
+        <v>52.104286717005536</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>49.767388821817576</v>
+        <v>53.613546358986525</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>51.599449475717314</v>
+        <v>55.587193583115528</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>55.155802509757976</v>
+        <v>59.418391135836522</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>60.016151656280222</v>
+        <v>64.654361124555209</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>54.713952587346867</v>
+        <v>58.942393864134822</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>48.49572319146364</v>
+        <v>52.243602991649929</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2708,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2748,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,310 +2827,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>40.493928864872132</v>
+        <v>43.623408498027686</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>45.334969529012589</v>
+        <v>48.838577792962667</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>45.269410495809318</v>
+        <v>48.767952181510992</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3156,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2035.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B813A-1A15-4E1B-B79C-024BA5A5DCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB7AAB4-7EB4-485A-9516-DA72D5F9D526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
